--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276622</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294664</v>
+        <v>5117112.456859928</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1215,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1567,34 +1569,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="U13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>24.5704967621155</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,67 +2080,67 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,67 +2317,67 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>118.2864869391949</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>149.3895849832727</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.99839241143703</v>
       </c>
     </row>
     <row r="28">
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>11.19305615617957</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2834,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2846,10 +2848,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.522595701822021</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>132.2608849457919</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>45.35693110212444</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>200.3360962888296</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="36">
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,64 +3426,64 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3642,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.30481998210698</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.58387696184059</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>156.0287596262406</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>81.54278654139161</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V2" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>148.2438924791353</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="V5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="W5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="X5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.60056303742164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E9" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F9" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S11" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T11" t="n">
-        <v>123.1178524655551</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y11" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T14" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U14" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V14" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W14" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>131.9507376187037</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>131.9507376187037</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5731,19 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>728.9050472788936</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,10 +5843,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>728.9050472788936</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y21" t="n">
-        <v>728.9050472788936</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="22">
@@ -5932,16 +5934,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>252.1315786412141</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>252.1315786412141</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X27" t="n">
-        <v>569.7098081763618</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="Y27" t="n">
-        <v>361.9495094114078</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6400,22 +6402,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.58726043968704</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C29" t="n">
-        <v>30.58726043968704</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>274.0360370837871</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V29" t="n">
-        <v>30.58726043968704</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W29" t="n">
-        <v>30.58726043968704</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X29" t="n">
-        <v>30.58726043968704</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.58726043968704</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>307.1033079837604</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6502787026334</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6502787026334</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6548,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.6614854603483</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>862.8876260635219</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C33" t="n">
-        <v>688.4345967823949</v>
+        <v>203.827050448935</v>
       </c>
       <c r="D33" t="n">
-        <v>554.837743301797</v>
+        <v>203.827050448935</v>
       </c>
       <c r="E33" t="n">
-        <v>395.6002882963414</v>
+        <v>203.827050448935</v>
       </c>
       <c r="F33" t="n">
-        <v>249.0657303232264</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6816,13 +6818,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>862.8876260635219</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>862.8876260635219</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6980,7 +6982,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,22 +7043,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>124.0418050929216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>124.0418050929216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>124.0418050929216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>124.0418050929216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7290,13 +7292,13 @@
         <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>298.4948343740486</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>707.0094349923255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>468.1548961435668</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>43.21163433375587</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>482.9817188708391</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>717.0830523965075</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>42.35474834916943</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>43.15042425981653</v>
+        <v>806.4523478073629</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8543,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>303.5925706376236</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>188.2303707361422</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>234.4140240453693</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23103,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H9" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,16 +23305,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>115.0036391131605</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23455,34 +23457,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>185.7444073364771</v>
       </c>
       <c r="U13" t="n">
-        <v>276.3414769952266</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23543,22 +23545,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>174.1545907582562</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>199.4461012748567</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,16 +23937,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>285.5285789088086</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,16 +24107,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24300,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>87.48649826428257</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>56.38340022020478</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.6843033658673</v>
       </c>
     </row>
     <row r="28">
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>343.4899854645034</v>
+        <v>242.3541153134493</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>163.0105879480453</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>52.02978932231852</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>15.18418061884682</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>99.71228129125944</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>185.901842367224</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="36">
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>80.77591565244738</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25406,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>328.2817459595876</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>33.63046180032887</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25530,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>156.993644731201</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25679,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>66.09181286930809</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>304.4296311920619</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25910,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.9493066880268</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>49.65393615106379</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26071,16 +26073,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390696</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042946</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315928</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261261</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223286</v>
-      </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
         <v>91388.3698922328</v>
@@ -26347,13 +26349,13 @@
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="O2" t="n">
-        <v>90796.17800832076</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>65132.53968261262</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
@@ -26445,19 +26447,19 @@
         <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449412</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800353</v>
+        <v>8626.861344417164</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866138</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488329</v>
+        <v>23416.56734866134</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866138</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488329</v>
+        <v>57044.16734866138</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.54779918657</v>
+        <v>14225.15515865643</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.02308880369</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912879</v>
+        <v>68187.59005912872</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532494</v>
+        <v>56640.67194913783</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912875</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="L6" t="n">
         <v>68187.59005912874</v>
@@ -26555,13 +26557,13 @@
         <v>68187.59005912875</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912876</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="O6" t="n">
-        <v>67930.15896609984</v>
+        <v>20807.71184166495</v>
       </c>
       <c r="P6" t="n">
-        <v>56760.20759488329</v>
+        <v>68187.59005912874</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>113.3808631277494</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>160.9963261931792</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>267779.7902310983</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859928</v>
+        <v>5764697.373081759</v>
       </c>
     </row>
     <row r="11">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U5" t="n">
-        <v>16.93162886246721</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>154.9075520657554</v>
       </c>
     </row>
     <row r="7">
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>141.3598116963805</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>12.18847805619943</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,58 +1861,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>84.05721994201966</v>
       </c>
     </row>
     <row r="19">
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>144.2395975293023</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>11.01727716149734</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.7728797354859</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.99839241143703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,20 +2791,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>45.35693110212444</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3198,58 +3198,58 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="36">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>124.9970695510301</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="37">
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>50.46697834767983</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>110.8731063230731</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.99743787508053</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>156.0287596262406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>42.79483382228227</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>42.79483382228227</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>42.79483382228227</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>3.530573790338288</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>32.70321845405519</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>15.60056303742164</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>48.10852568854899</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>3.530573790338288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>3.530573790338288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>3.530573790338288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>3.530573790338288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.2644294849704</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C8" t="n">
-        <v>137.2644294849704</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D8" t="n">
-        <v>137.2644294849704</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E8" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>137.2644294849704</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>137.2644294849704</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>137.2644294849704</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>137.2644294849704</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>137.2644294849704</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X8" t="n">
-        <v>137.2644294849704</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y8" t="n">
-        <v>137.2644294849704</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>3.530573790338288</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>48.10852568854899</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>3.530573790338288</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6031257566472</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>951.7455615144752</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>743.8940613089424</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>536.1337625439884</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>48.10852568854899</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>48.10852568854899</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>131.9507376187037</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>131.9507376187037</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.37278572049297</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>936.3358653523144</v>
       </c>
       <c r="S15" t="n">
-        <v>87.37278572049297</v>
+        <v>762.9185208029833</v>
       </c>
       <c r="T15" t="n">
-        <v>42.79483382228227</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5560,7 +5560,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5597,46 +5597,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5697,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5837,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X21" t="n">
-        <v>547.1910343172051</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.4307355522512</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="22">
@@ -5934,16 +5934,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,19 +6098,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6259,19 +6259,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="27">
@@ -6311,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6341,16 +6341,16 @@
         <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>461.2466632505798</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W27" t="n">
-        <v>217.7978866064798</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>217.7978866064798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6417,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6657,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D32" t="n">
         <v>31.35113235729608</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>411.587349213889</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>353.3011080883284</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7131,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>495.259035872464</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>251.810259228364</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,10 +7496,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E44" t="n">
-        <v>587.3248651012614</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>587.3248651012614</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>587.3248651012614</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y44" t="n">
-        <v>587.3248651012614</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>638.2370107872948</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C45" t="n">
-        <v>463.7839815061678</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D45" t="n">
-        <v>463.7839815061678</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7739,7 +7739,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>938.8072182630801</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>765.389873713749</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>765.389873713749</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>765.389873713749</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>765.389873713749</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>521.941097069649</v>
       </c>
       <c r="X45" t="n">
-        <v>964.0571555106362</v>
+        <v>521.941097069649</v>
       </c>
       <c r="Y45" t="n">
-        <v>806.4523478073629</v>
+        <v>521.941097069649</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9485,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11387,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22801,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U5" t="n">
-        <v>234.4140240453693</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>50.77514371154894</v>
       </c>
     </row>
     <row r="7">
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23159,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>64.32288408092387</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23305,19 +23305,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>239.5065051047202</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>185.7444073364771</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>368.0044283100869</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>72.71375689590451</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23749,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>121.6254758352847</v>
       </c>
     </row>
     <row r="19">
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24025,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.29358612056504</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>161.6912218268184</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>170.275430303766</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>198.920084420089</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>1.027707413939339</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.6843033658673</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24657,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>242.3541153134493</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>52.02978932231852</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>146.4192052328705</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>51.00955661900684</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25007,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>99.71228129125944</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>80.77591565244738</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="37">
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25408,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>119.0371437604433</v>
+        <v>298.7739903697332</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,22 +25873,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>323.535651625599</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>304.4296311920619</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>75.1603962775626</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.65393615106379</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770134</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315928</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="N2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417164</v>
+        <v>-58427.45209245948</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866138</v>
+        <v>22341.97943908827</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866134</v>
+        <v>22341.97943908832</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866138</v>
+        <v>55969.57943908826</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866138</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865643</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912872</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913783</v>
+        <v>-7090.363160017949</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166495</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.5794390883</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330019</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38107,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267779.7902310983</v>
+        <v>361972.0568565574</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764697.373081759</v>
+        <v>5117112.456859928</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>154.9075520657554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>141.3598116963805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12.18847805619943</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>23.81301614990497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.44407725673862</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>241.0142888776591</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>158.2776881777391</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>84.05721994201966</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>11.01727716149734</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>55.66595177720879</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1426064868132</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>231.7728797354859</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>52.42556848774752</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>48.34508484837216</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>4.122280040031055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>29.05241763862484</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,64 +3748,64 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>50.46697834767983</v>
-      </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T42" t="n">
-        <v>29.05241763862484</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3884,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>58.39471844666272</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>24.99743787508053</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X6" t="n">
-        <v>518.4217842253022</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.0360370837871</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>30.58726043968704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>30.58726043968704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X8" t="n">
-        <v>274.0360370837871</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.0360370837871</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.668582052591</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>485.4562706347935</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y9" t="n">
-        <v>342.668582052591</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>536.1337625439884</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>361.6807332628614</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>361.6807332628614</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E12" t="n">
-        <v>361.6807332628614</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>951.7455615144752</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>743.8940613089424</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>536.1337625439884</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>352.9716273967953</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>936.3358653523144</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>762.9185208029833</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>560.7319261617492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>560.7319261617492</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>560.7319261617492</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>560.7319261617492</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>560.7319261617492</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>352.9716273967953</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="U18" t="n">
-        <v>790.6398109613051</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="V18" t="n">
-        <v>555.4877027295624</v>
+        <v>804.1807028058493</v>
       </c>
       <c r="W18" t="n">
-        <v>312.0389260854624</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>104.1874258799295</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5697,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W20" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X20" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="Y20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X20" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>446.0215048700907</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6071,46 +6071,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>705.6423267510095</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>470.4902185192667</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6177,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2873286152873</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2873286152873</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2873286152873</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>32.55650319790283</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>32.55650319790283</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6314,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>227.1326433157456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="28">
@@ -6408,13 +6408,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6505,10 +6505,10 @@
         <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="Y29" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,19 +6569,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
         <v>227.0414418751666</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>640.636862475431</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>640.636862475431</v>
       </c>
     </row>
     <row r="34">
@@ -6888,13 +6888,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7028,10 +7028,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X36" t="n">
-        <v>55.04605772994853</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7125,13 +7125,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>934.7112791079849</v>
+        <v>816.40527539251</v>
       </c>
       <c r="U39" t="n">
-        <v>706.487660844374</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V39" t="n">
-        <v>471.3355526126313</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W39" t="n">
-        <v>227.8867759685313</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T42" t="n">
-        <v>934.7112791079849</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U42" t="n">
-        <v>706.487660844374</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>471.3355526126313</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>227.8867759685313</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7684,16 +7684,16 @@
         <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>333.7844730889342</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W44" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>353.7257600495809</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>938.8072182630801</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="S45" t="n">
-        <v>765.389873713749</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T45" t="n">
-        <v>765.389873713749</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U45" t="n">
-        <v>765.389873713749</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V45" t="n">
-        <v>765.389873713749</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W45" t="n">
-        <v>521.941097069649</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>521.941097069649</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>521.941097069649</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7836,13 +7836,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8835549304717</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133072</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11381,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>59.59762388653245</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>62.03280804727645</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22749,28 +22749,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22837,19 +22837,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.77514371154894</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23007,10 +23007,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23071,10 +23071,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="9">
@@ -23102,16 +23102,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.32288408092387</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23232,19 +23232,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>325.8021234036032</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>239.5065051047202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>199.2828334142264</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23576,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.71375689590451</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23676,7 +23676,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>145.2236497783945</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>13.40548292609873</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>121.6254758352847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>161.6912218268184</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>170.275430303766</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>76.25402636460187</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.027707413939339</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,7 +24694,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="30">
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>175.8836868124217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>146.4192052328705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>175.8836868124217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>157.4279003551053</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>324.9137997770587</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>247.5727031208885</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>171.0220216300238</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,22 +25438,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>171.1123110561968</v>
+        <v>154.1472015305199</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>298.7739903697332</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T42" t="n">
-        <v>171.1123110561968</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>323.535651625599</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>75.1603962775626</v>
+        <v>35.02723208740593</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770131</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498541.5625390693</v>
+        <v>358671.2447770134</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498541.5625390694</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223279</v>
+        <v>65754.15294315934</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.3698922328</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223285</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.36989223279</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="F2" t="n">
+        <v>65754.15294315931</v>
+      </c>
+      <c r="G2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="J2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342402</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58427.45209245948</v>
+        <v>7172.021946512465</v>
       </c>
       <c r="C6" t="n">
-        <v>22341.97943908827</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="D6" t="n">
-        <v>22341.97943908832</v>
+        <v>21961.72795075665</v>
       </c>
       <c r="E6" t="n">
-        <v>55969.57943908826</v>
+        <v>55589.32795075663</v>
       </c>
       <c r="F6" t="n">
-        <v>55969.57943908829</v>
+        <v>55589.32795075665</v>
       </c>
       <c r="G6" t="n">
-        <v>55969.57943908827</v>
+        <v>13003.35409665238</v>
       </c>
       <c r="H6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712469</v>
       </c>
       <c r="I6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="J6" t="n">
-        <v>-7090.363160017949</v>
+        <v>55418.8708871338</v>
       </c>
       <c r="K6" t="n">
-        <v>55969.57943908828</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="L6" t="n">
-        <v>55969.57943908827</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="M6" t="n">
-        <v>55969.5794390883</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="N6" t="n">
-        <v>55969.5794390883</v>
+        <v>66965.78899712471</v>
       </c>
       <c r="O6" t="n">
-        <v>55969.57943908828</v>
+        <v>19585.91077966091</v>
       </c>
       <c r="P6" t="n">
-        <v>55969.5794390883</v>
+        <v>66965.78899712471</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>169.9091475161414</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>99.8112771299739</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
